--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed4/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44550000000001</v>
+        <v>16.43140000000001</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.449300000000001</v>
+        <v>-7.519200000000001</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.02090000000002</v>
+        <v>17.86690000000002</v>
       </c>
     </row>
     <row r="13">
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.392899999999999</v>
+        <v>-8.402800000000001</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.09610000000002</v>
+        <v>16.78220000000001</v>
       </c>
     </row>
     <row r="15">
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.688500000000005</v>
+        <v>-8.711800000000006</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.362899999999996</v>
+        <v>-8.376300000000001</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.3228</v>
+        <v>16.3781</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.466300000000002</v>
+        <v>-7.217599999999999</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -879,10 +879,10 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.865400000000001</v>
+        <v>-8.057199999999993</v>
       </c>
       <c r="E26" t="n">
-        <v>16.4605</v>
+        <v>16.39359999999999</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.386800000000004</v>
+        <v>-8.417300000000003</v>
       </c>
       <c r="E27" t="n">
-        <v>16.6467</v>
+        <v>16.6404</v>
       </c>
     </row>
     <row r="28">
@@ -930,10 +930,10 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.388599999999999</v>
+        <v>-8.017199999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>16.75120000000001</v>
+        <v>16.49889999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.660700000000005</v>
+        <v>-7.597100000000001</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.799100000000003</v>
+        <v>-7.648700000000006</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.50520000000001</v>
+        <v>16.70520000000002</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.82419999999999</v>
+        <v>16.66850000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.297499999999998</v>
+        <v>-7.509799999999996</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.5405</v>
+        <v>16.59379999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.3327</v>
+        <v>17.323</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.2819</v>
+        <v>17.21780000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1372,10 +1372,10 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.877099999999999</v>
+        <v>-8.975100000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>16.55059999999999</v>
+        <v>16.62229999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.554500000000001</v>
+        <v>-8.511500000000002</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1610,10 +1610,10 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.238499999999996</v>
+        <v>-7.880899999999994</v>
       </c>
       <c r="E69" t="n">
-        <v>17.10990000000001</v>
+        <v>16.6247</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.02400000000001</v>
+        <v>17.82250000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1729,10 +1729,10 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.863300000000002</v>
+        <v>-7.626199999999998</v>
       </c>
       <c r="E76" t="n">
-        <v>16.278</v>
+        <v>16.53379999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.591300000000003</v>
+        <v>-7.634700000000002</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.5273</v>
+        <v>16.3858</v>
       </c>
     </row>
     <row r="82">
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.418599999999994</v>
+        <v>-8.339899999999989</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
@@ -1848,10 +1848,10 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.940799999999999</v>
+        <v>-9.177900000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>16.5833</v>
+        <v>16.5639</v>
       </c>
     </row>
     <row r="84">
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.301399999999998</v>
+        <v>-6.522600000000001</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>18.80040000000002</v>
+        <v>18.53460000000003</v>
       </c>
     </row>
     <row r="95">
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.095500000000003</v>
+        <v>-8.207200000000002</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.5884</v>
+        <v>16.47389999999999</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.80779999999999</v>
+        <v>16.91289999999999</v>
       </c>
     </row>
   </sheetData>
